--- a/second/leetcode刷题记录.xlsx
+++ b/second/leetcode刷题记录.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangpeiyu/IdeaProjects/Mycode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangpeiyu/IdeaProjects/Mycode/leetcode/second/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E211F63A-6D03-9D4C-A315-A23E77BEDA20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B41698E-6D25-D84E-ACAC-8872C2627947}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="1100" windowWidth="27840" windowHeight="16940" xr2:uid="{2FCD6EC2-88E6-954A-896E-66D5994239A6}"/>
+    <workbookView xWindow="3240" yWindow="1240" windowWidth="27840" windowHeight="16940" xr2:uid="{2FCD6EC2-88E6-954A-896E-66D5994239A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="203">
   <si>
     <t>课节</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -808,6 +808,18 @@
   </si>
   <si>
     <t>第五遍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -856,7 +868,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,6 +896,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,7 +975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,19 +1006,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1342,7 +1369,7 @@
   <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1350,11 +1377,11 @@
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="82" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="7"/>
+    <col min="5" max="5" width="16.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" customHeight="1">
@@ -1370,738 +1397,812 @@
       <c r="D1" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="D2" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="12">
         <v>43839</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="D3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="14"/>
       <c r="F3" s="12">
         <v>43840</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="D4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15">
+        <v>43844</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="D5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="14"/>
       <c r="F5" s="12">
         <v>43839</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="D6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="16"/>
       <c r="F6" s="12">
         <v>43839</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="D7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17">
+        <v>43844</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="D8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="D9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="D10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="D11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="12">
+        <v>43850</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="D12" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="15">
+        <v>43850</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="D13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="D14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="D15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="D16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="D17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D18" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="E18" s="12">
         <v>43840</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="D19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="D20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="D21" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="D22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="D23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="12">
         <v>43840</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -2110,727 +2211,727 @@
       <c r="C57" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15" t="s">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15" t="s">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1">
-      <c r="A70" s="17"/>
-      <c r="B70" s="15"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
     </row>
     <row r="71" spans="1:9" ht="15" customHeight="1">
-      <c r="A71" s="17"/>
-      <c r="B71" s="15"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
     </row>
     <row r="72" spans="1:9" ht="15" customHeight="1">
-      <c r="A72" s="17"/>
-      <c r="B72" s="15"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1">
-      <c r="A73" s="17"/>
-      <c r="B73" s="15"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1">
-      <c r="A74" s="17"/>
-      <c r="B74" s="15"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
     </row>
     <row r="75" spans="1:9" ht="15" customHeight="1">
-      <c r="A75" s="17"/>
-      <c r="B75" s="15"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1">
-      <c r="A76" s="17"/>
-      <c r="B76" s="15"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1">
-      <c r="A77" s="17"/>
-      <c r="B77" s="15"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1">
-      <c r="A78" s="17"/>
-      <c r="B78" s="15"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1">
-      <c r="A79" s="17"/>
-      <c r="B79" s="15"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
     </row>
     <row r="80" spans="1:9" ht="15" customHeight="1">
-      <c r="A80" s="17"/>
-      <c r="B80" s="15"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1">
-      <c r="A81" s="17"/>
-      <c r="B81" s="15" t="s">
+      <c r="A81" s="20"/>
+      <c r="B81" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1">
-      <c r="A82" s="17"/>
-      <c r="B82" s="15"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1">
-      <c r="A83" s="17"/>
-      <c r="B83" s="15"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1">
-      <c r="A84" s="17"/>
-      <c r="B84" s="15"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1">
-      <c r="A85" s="17"/>
-      <c r="B85" s="15"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1">
-      <c r="A86" s="17"/>
-      <c r="B86" s="15"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
     </row>
     <row r="87" spans="1:9" ht="15" customHeight="1">
-      <c r="A87" s="17"/>
-      <c r="B87" s="15"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1">
-      <c r="A88" s="17"/>
-      <c r="B88" s="15"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1">
-      <c r="A89" s="17"/>
-      <c r="B89" s="15"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1">
-      <c r="A90" s="17"/>
-      <c r="B90" s="15"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1">
-      <c r="A91" s="17"/>
-      <c r="B91" s="15"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1">
-      <c r="A92" s="17"/>
-      <c r="B92" s="15"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1">
-      <c r="A93" s="18"/>
-      <c r="B93" s="15"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15" t="s">
+      <c r="A96" s="18"/>
+      <c r="B96" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
     </row>
     <row r="97" spans="1:9" ht="15" customHeight="1">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
     </row>
     <row r="98" spans="1:9" ht="15" customHeight="1">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
     </row>
     <row r="101" spans="1:9" ht="15" customHeight="1">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
     </row>
     <row r="102" spans="1:9" ht="15" customHeight="1">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15" t="s">
+      <c r="A104" s="18"/>
+      <c r="B104" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15" t="s">
+      <c r="A106" s="18"/>
+      <c r="B106" s="18" t="s">
         <v>129</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
     </row>
     <row r="108" spans="1:9" ht="15" customHeight="1">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
     </row>
     <row r="109" spans="1:9" ht="15" customHeight="1">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="22" t="s">
         <v>134</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1">
-      <c r="A110" s="20"/>
-      <c r="B110" s="20"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1">
-      <c r="A111" s="20"/>
-      <c r="B111" s="20"/>
+      <c r="A111" s="23"/>
+      <c r="B111" s="23"/>
       <c r="C111" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
     </row>
     <row r="112" spans="1:9" ht="15" customHeight="1">
-      <c r="A112" s="20"/>
-      <c r="B112" s="20"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1">
-      <c r="A113" s="20"/>
-      <c r="B113" s="20"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
       <c r="C113" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1">
-      <c r="A114" s="21"/>
-      <c r="B114" s="21"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
       <c r="C114" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1">
       <c r="A115" s="6" t="s">
@@ -2842,599 +2943,599 @@
       <c r="C115" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B116" s="19" t="s">
+      <c r="B116" s="22" t="s">
         <v>144</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20"/>
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
       <c r="C117" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1">
-      <c r="A118" s="20"/>
-      <c r="B118" s="20"/>
+      <c r="A118" s="23"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="10"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1">
-      <c r="A119" s="20"/>
-      <c r="B119" s="20"/>
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1">
-      <c r="A120" s="21"/>
-      <c r="B120" s="21"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
       <c r="C120" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="B121" s="22" t="s">
         <v>151</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1">
-      <c r="A122" s="20"/>
-      <c r="B122" s="20"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1">
-      <c r="A123" s="20"/>
-      <c r="B123" s="20"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="23"/>
       <c r="C123" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1">
-      <c r="A124" s="20"/>
-      <c r="B124" s="20"/>
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
       <c r="C124" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1">
-      <c r="A125" s="20"/>
-      <c r="B125" s="20"/>
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
       <c r="C125" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1">
-      <c r="A126" s="20"/>
-      <c r="B126" s="20"/>
+      <c r="A126" s="23"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1">
-      <c r="A127" s="21"/>
-      <c r="B127" s="21"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="24"/>
       <c r="C127" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B128" s="19" t="s">
+      <c r="B128" s="22" t="s">
         <v>160</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1">
-      <c r="A129" s="15"/>
-      <c r="B129" s="20"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="23"/>
       <c r="C129" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
     </row>
     <row r="130" spans="1:9" ht="15" customHeight="1">
-      <c r="A130" s="15"/>
-      <c r="B130" s="20"/>
+      <c r="A130" s="18"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
     </row>
     <row r="131" spans="1:9" ht="15" customHeight="1">
-      <c r="A131" s="15"/>
-      <c r="B131" s="20"/>
+      <c r="A131" s="18"/>
+      <c r="B131" s="23"/>
       <c r="C131" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
     </row>
     <row r="132" spans="1:9" ht="15" customHeight="1">
-      <c r="A132" s="15"/>
-      <c r="B132" s="20"/>
+      <c r="A132" s="18"/>
+      <c r="B132" s="23"/>
       <c r="C132" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
     </row>
     <row r="133" spans="1:9" ht="15" customHeight="1">
-      <c r="A133" s="15"/>
-      <c r="B133" s="19" t="s">
+      <c r="A133" s="18"/>
+      <c r="B133" s="22" t="s">
         <v>166</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
     </row>
     <row r="134" spans="1:9" ht="15" customHeight="1">
-      <c r="A134" s="15"/>
-      <c r="B134" s="20"/>
+      <c r="A134" s="18"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
     </row>
     <row r="135" spans="1:9" ht="15" customHeight="1">
-      <c r="A135" s="15"/>
-      <c r="B135" s="20"/>
+      <c r="A135" s="18"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1">
-      <c r="A136" s="15"/>
-      <c r="B136" s="20"/>
+      <c r="A136" s="18"/>
+      <c r="B136" s="23"/>
       <c r="C136" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
     </row>
     <row r="137" spans="1:9" ht="15" customHeight="1">
-      <c r="A137" s="15"/>
-      <c r="B137" s="20"/>
+      <c r="A137" s="18"/>
+      <c r="B137" s="23"/>
       <c r="C137" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
     </row>
     <row r="138" spans="1:9" ht="15" customHeight="1">
-      <c r="A138" s="15"/>
-      <c r="B138" s="21"/>
+      <c r="A138" s="18"/>
+      <c r="B138" s="24"/>
       <c r="C138" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
     </row>
     <row r="139" spans="1:9" ht="15" customHeight="1">
-      <c r="A139" s="15"/>
-      <c r="B139" s="19" t="s">
+      <c r="A139" s="18"/>
+      <c r="B139" s="22" t="s">
         <v>173</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
     </row>
     <row r="140" spans="1:9" ht="15" customHeight="1">
-      <c r="A140" s="15"/>
-      <c r="B140" s="20"/>
+      <c r="A140" s="18"/>
+      <c r="B140" s="23"/>
       <c r="C140" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
     </row>
     <row r="141" spans="1:9" ht="15" customHeight="1">
-      <c r="A141" s="15"/>
-      <c r="B141" s="21"/>
+      <c r="A141" s="18"/>
+      <c r="B141" s="24"/>
       <c r="C141" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
     </row>
     <row r="142" spans="1:9" ht="15" customHeight="1">
-      <c r="A142" s="15"/>
-      <c r="B142" s="19" t="s">
+      <c r="A142" s="18"/>
+      <c r="B142" s="22" t="s">
         <v>175</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
     </row>
     <row r="143" spans="1:9" ht="15" customHeight="1">
-      <c r="A143" s="15"/>
-      <c r="B143" s="20"/>
+      <c r="A143" s="18"/>
+      <c r="B143" s="23"/>
       <c r="C143" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
     </row>
     <row r="144" spans="1:9" ht="15" customHeight="1">
-      <c r="A144" s="15"/>
-      <c r="B144" s="21"/>
+      <c r="A144" s="18"/>
+      <c r="B144" s="24"/>
       <c r="C144" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="10"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
     </row>
     <row r="145" spans="1:9" ht="15" customHeight="1">
-      <c r="A145" s="15"/>
-      <c r="B145" s="16" t="s">
+      <c r="A145" s="18"/>
+      <c r="B145" s="19" t="s">
         <v>179</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
     </row>
     <row r="146" spans="1:9" ht="15" customHeight="1">
-      <c r="A146" s="15"/>
-      <c r="B146" s="17"/>
+      <c r="A146" s="18"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
     </row>
     <row r="147" spans="1:9" ht="15" customHeight="1">
-      <c r="A147" s="15"/>
-      <c r="B147" s="18"/>
+      <c r="A147" s="18"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
     </row>
     <row r="148" spans="1:9" ht="15" customHeight="1">
-      <c r="A148" s="15"/>
-      <c r="B148" s="16" t="s">
+      <c r="A148" s="18"/>
+      <c r="B148" s="19" t="s">
         <v>182</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
-      <c r="I148" s="10"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1">
-      <c r="A149" s="15"/>
-      <c r="B149" s="18"/>
+      <c r="A149" s="18"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="10"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
     </row>
     <row r="150" spans="1:9" ht="15" customHeight="1">
-      <c r="A150" s="15"/>
-      <c r="B150" s="16" t="s">
+      <c r="A150" s="18"/>
+      <c r="B150" s="19" t="s">
         <v>185</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="10"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
     </row>
     <row r="151" spans="1:9" ht="15" customHeight="1">
-      <c r="A151" s="15"/>
-      <c r="B151" s="17"/>
+      <c r="A151" s="18"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1">
-      <c r="A152" s="15"/>
-      <c r="B152" s="17"/>
+      <c r="A152" s="18"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
-      <c r="I152" s="10"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
     </row>
     <row r="153" spans="1:9" ht="15" customHeight="1">
-      <c r="A153" s="15"/>
-      <c r="B153" s="17"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
-      <c r="I153" s="10"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="15"/>
-      <c r="B154" s="17"/>
+      <c r="A154" s="18"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13"/>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="15"/>
-      <c r="B155" s="17"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="15"/>
-      <c r="B156" s="17"/>
+      <c r="A156" s="18"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="15"/>
-      <c r="B157" s="17"/>
+      <c r="A157" s="18"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="10"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="15"/>
-      <c r="B158" s="17"/>
+      <c r="A158" s="18"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-      <c r="H158" s="10"/>
-      <c r="I158" s="10"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="15"/>
-      <c r="B159" s="17"/>
+      <c r="A159" s="18"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
-      <c r="I159" s="10"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="15"/>
-      <c r="B160" s="17"/>
+      <c r="A160" s="18"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="10"/>
-      <c r="I160" s="10"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="15"/>
-      <c r="B161" s="17"/>
+      <c r="A161" s="18"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="10"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="15"/>
-      <c r="B162" s="18"/>
+      <c r="A162" s="18"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-      <c r="H162" s="10"/>
-      <c r="I162" s="10"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
     </row>
     <row r="163" spans="1:9">
       <c r="C163"/>

--- a/second/leetcode刷题记录.xlsx
+++ b/second/leetcode刷题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangpeiyu/IdeaProjects/Mycode/leetcode/second/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B41698E-6D25-D84E-ACAC-8872C2627947}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE24A56D-86C1-F04E-94A8-316144002E68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="1240" windowWidth="27840" windowHeight="16940" xr2:uid="{2FCD6EC2-88E6-954A-896E-66D5994239A6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="206">
   <si>
     <t>课节</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -821,6 +821,15 @@
   <si>
     <t>medium</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-paths-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-paths/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-paths-iii/</t>
   </si>
 </sst>
 </file>
@@ -975,7 +984,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1034,6 +1043,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1042,14 +1060,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1366,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF27E891-07AD-7144-B58D-1389D1D6EA9C}">
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1464,7 +1476,9 @@
       <c r="F4" s="15">
         <v>43844</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="15">
+        <v>43869</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
@@ -2358,10 +2372,10 @@
       <c r="I68" s="13"/>
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -2374,8 +2388,8 @@
       <c r="I69" s="13"/>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1">
-      <c r="A70" s="20"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="8" t="s">
         <v>90</v>
       </c>
@@ -2386,8 +2400,8 @@
       <c r="I70" s="13"/>
     </row>
     <row r="71" spans="1:9" ht="15" customHeight="1">
-      <c r="A71" s="20"/>
-      <c r="B71" s="18"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="8" t="s">
         <v>91</v>
       </c>
@@ -2398,8 +2412,8 @@
       <c r="I71" s="13"/>
     </row>
     <row r="72" spans="1:9" ht="15" customHeight="1">
-      <c r="A72" s="20"/>
-      <c r="B72" s="18"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="8" t="s">
         <v>92</v>
       </c>
@@ -2410,8 +2424,8 @@
       <c r="I72" s="13"/>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1">
-      <c r="A73" s="20"/>
-      <c r="B73" s="18"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="8" t="s">
         <v>93</v>
       </c>
@@ -2422,8 +2436,8 @@
       <c r="I73" s="13"/>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1">
-      <c r="A74" s="20"/>
-      <c r="B74" s="18"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="8" t="s">
         <v>94</v>
       </c>
@@ -2434,8 +2448,8 @@
       <c r="I74" s="13"/>
     </row>
     <row r="75" spans="1:9" ht="15" customHeight="1">
-      <c r="A75" s="20"/>
-      <c r="B75" s="18"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="8" t="s">
         <v>95</v>
       </c>
@@ -2446,8 +2460,8 @@
       <c r="I75" s="13"/>
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1">
-      <c r="A76" s="20"/>
-      <c r="B76" s="18"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="8" t="s">
         <v>96</v>
       </c>
@@ -2458,8 +2472,8 @@
       <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1">
-      <c r="A77" s="20"/>
-      <c r="B77" s="18"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="8" t="s">
         <v>97</v>
       </c>
@@ -2470,8 +2484,8 @@
       <c r="I77" s="13"/>
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1">
-      <c r="A78" s="20"/>
-      <c r="B78" s="18"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="8" t="s">
         <v>98</v>
       </c>
@@ -2482,8 +2496,8 @@
       <c r="I78" s="13"/>
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1">
-      <c r="A79" s="20"/>
-      <c r="B79" s="18"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="8" t="s">
         <v>99</v>
       </c>
@@ -2494,8 +2508,8 @@
       <c r="I79" s="13"/>
     </row>
     <row r="80" spans="1:9" ht="15" customHeight="1">
-      <c r="A80" s="20"/>
-      <c r="B80" s="18"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="8" t="s">
         <v>100</v>
       </c>
@@ -2506,36 +2520,49 @@
       <c r="I80" s="13"/>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1">
-      <c r="A81" s="20"/>
-      <c r="B81" s="18" t="s">
-        <v>101</v>
-      </c>
+      <c r="A81" s="23"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E81" s="12">
+        <v>43863</v>
+      </c>
+      <c r="F81" s="15">
+        <v>43869</v>
+      </c>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1">
-      <c r="A82" s="20"/>
-      <c r="B82" s="18"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E82" s="13"/>
+        <v>203</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E82" s="12">
+        <v>43869</v>
+      </c>
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1">
-      <c r="A83" s="20"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="8" t="s">
-        <v>104</v>
+      <c r="A83" s="23"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
@@ -2544,10 +2571,12 @@
       <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1">
-      <c r="A84" s="20"/>
-      <c r="B84" s="18"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="C84" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
@@ -2556,10 +2585,10 @@
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1">
-      <c r="A85" s="20"/>
+      <c r="A85" s="23"/>
       <c r="B85" s="18"/>
       <c r="C85" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
@@ -2568,10 +2597,10 @@
       <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1">
-      <c r="A86" s="20"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="18"/>
       <c r="C86" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
@@ -2580,10 +2609,10 @@
       <c r="I86" s="13"/>
     </row>
     <row r="87" spans="1:9" ht="15" customHeight="1">
-      <c r="A87" s="20"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="18"/>
       <c r="C87" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
@@ -2592,10 +2621,10 @@
       <c r="I87" s="13"/>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1">
-      <c r="A88" s="20"/>
+      <c r="A88" s="23"/>
       <c r="B88" s="18"/>
       <c r="C88" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
@@ -2604,10 +2633,10 @@
       <c r="I88" s="13"/>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1">
-      <c r="A89" s="20"/>
+      <c r="A89" s="23"/>
       <c r="B89" s="18"/>
       <c r="C89" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
@@ -2616,10 +2645,10 @@
       <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1">
-      <c r="A90" s="20"/>
+      <c r="A90" s="23"/>
       <c r="B90" s="18"/>
       <c r="C90" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
@@ -2628,10 +2657,10 @@
       <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1">
-      <c r="A91" s="20"/>
+      <c r="A91" s="23"/>
       <c r="B91" s="18"/>
       <c r="C91" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
@@ -2640,10 +2669,10 @@
       <c r="I91" s="13"/>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1">
-      <c r="A92" s="20"/>
+      <c r="A92" s="23"/>
       <c r="B92" s="18"/>
       <c r="C92" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
@@ -2652,10 +2681,10 @@
       <c r="I92" s="13"/>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1">
-      <c r="A93" s="21"/>
+      <c r="A93" s="23"/>
       <c r="B93" s="18"/>
       <c r="C93" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
@@ -2664,14 +2693,10 @@
       <c r="I93" s="13"/>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1">
-      <c r="A94" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>116</v>
-      </c>
+      <c r="A94" s="23"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
@@ -2680,10 +2705,10 @@
       <c r="I94" s="13"/>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1">
-      <c r="A95" s="18"/>
+      <c r="A95" s="23"/>
       <c r="B95" s="18"/>
       <c r="C95" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
@@ -2692,12 +2717,10 @@
       <c r="I95" s="13"/>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18" t="s">
-        <v>119</v>
-      </c>
+      <c r="A96" s="24"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
@@ -2706,10 +2729,14 @@
       <c r="I96" s="13"/>
     </row>
     <row r="97" spans="1:9" ht="15" customHeight="1">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18"/>
+      <c r="A97" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>116</v>
+      </c>
       <c r="C97" s="8" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
@@ -2721,7 +2748,7 @@
       <c r="A98" s="18"/>
       <c r="B98" s="18"/>
       <c r="C98" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
@@ -2730,14 +2757,12 @@
       <c r="I98" s="13"/>
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1">
-      <c r="A99" s="18" t="s">
-        <v>122</v>
-      </c>
+      <c r="A99" s="18"/>
       <c r="B99" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
@@ -2749,7 +2774,7 @@
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
       <c r="C100" s="8" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
@@ -2761,7 +2786,7 @@
       <c r="A101" s="18"/>
       <c r="B101" s="18"/>
       <c r="C101" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
@@ -2770,10 +2795,14 @@
       <c r="I101" s="13"/>
     </row>
     <row r="102" spans="1:9" ht="15" customHeight="1">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
+      <c r="A102" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="C102" s="8" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
@@ -2785,7 +2814,7 @@
       <c r="A103" s="18"/>
       <c r="B103" s="18"/>
       <c r="C103" s="8" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
@@ -2795,11 +2824,9 @@
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1">
       <c r="A104" s="18"/>
-      <c r="B104" s="18" t="s">
-        <v>127</v>
-      </c>
+      <c r="B104" s="18"/>
       <c r="C104" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
@@ -2811,7 +2838,7 @@
       <c r="A105" s="18"/>
       <c r="B105" s="18"/>
       <c r="C105" s="8" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
@@ -2821,11 +2848,9 @@
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1">
       <c r="A106" s="18"/>
-      <c r="B106" s="18" t="s">
-        <v>129</v>
-      </c>
+      <c r="B106" s="18"/>
       <c r="C106" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
@@ -2835,9 +2860,11 @@
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1">
       <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
+      <c r="B107" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="C107" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
@@ -2849,7 +2876,7 @@
       <c r="A108" s="18"/>
       <c r="B108" s="18"/>
       <c r="C108" s="8" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
@@ -2858,14 +2885,12 @@
       <c r="I108" s="13"/>
     </row>
     <row r="109" spans="1:9" ht="15" customHeight="1">
-      <c r="A109" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B109" s="22" t="s">
-        <v>134</v>
+      <c r="A109" s="18"/>
+      <c r="B109" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -2874,10 +2899,10 @@
       <c r="I109" s="13"/>
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1">
-      <c r="A110" s="23"/>
-      <c r="B110" s="23"/>
+      <c r="A110" s="18"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
@@ -2886,10 +2911,10 @@
       <c r="I110" s="13"/>
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1">
-      <c r="A111" s="23"/>
-      <c r="B111" s="23"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -2898,10 +2923,14 @@
       <c r="I111" s="13"/>
     </row>
     <row r="112" spans="1:9" ht="15" customHeight="1">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
+      <c r="A112" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="C112" s="8" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
@@ -2910,10 +2939,10 @@
       <c r="I112" s="13"/>
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1">
-      <c r="A113" s="23"/>
-      <c r="B113" s="23"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
@@ -2922,10 +2951,10 @@
       <c r="I113" s="13"/>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
@@ -2934,14 +2963,10 @@
       <c r="I114" s="13"/>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1">
-      <c r="A115" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>141</v>
-      </c>
+      <c r="A115" s="20"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="8" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
@@ -2950,14 +2975,10 @@
       <c r="I115" s="13"/>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1">
-      <c r="A116" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B116" s="22" t="s">
-        <v>144</v>
-      </c>
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
@@ -2966,10 +2987,10 @@
       <c r="I116" s="13"/>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1">
-      <c r="A117" s="23"/>
-      <c r="B117" s="23"/>
+      <c r="A117" s="21"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
@@ -2978,10 +2999,14 @@
       <c r="I117" s="13"/>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1">
-      <c r="A118" s="23"/>
-      <c r="B118" s="23"/>
+      <c r="A118" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="C118" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
@@ -2990,10 +3015,14 @@
       <c r="I118" s="13"/>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1">
-      <c r="A119" s="23"/>
-      <c r="B119" s="23"/>
+      <c r="A119" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="C119" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
@@ -3002,10 +3031,10 @@
       <c r="I119" s="13"/>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
+      <c r="A120" s="20"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
@@ -3014,14 +3043,10 @@
       <c r="I120" s="13"/>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1">
-      <c r="A121" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B121" s="22" t="s">
-        <v>151</v>
-      </c>
+      <c r="A121" s="20"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
@@ -3030,10 +3055,10 @@
       <c r="I121" s="13"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1">
-      <c r="A122" s="23"/>
-      <c r="B122" s="23"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
@@ -3042,10 +3067,10 @@
       <c r="I122" s="13"/>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1">
-      <c r="A123" s="23"/>
-      <c r="B123" s="23"/>
+      <c r="A123" s="21"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
@@ -3054,10 +3079,14 @@
       <c r="I123" s="13"/>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1">
-      <c r="A124" s="23"/>
-      <c r="B124" s="23"/>
+      <c r="A124" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="C124" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
@@ -3066,10 +3095,10 @@
       <c r="I124" s="13"/>
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1">
-      <c r="A125" s="23"/>
-      <c r="B125" s="23"/>
+      <c r="A125" s="20"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
@@ -3078,10 +3107,10 @@
       <c r="I125" s="13"/>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1">
-      <c r="A126" s="23"/>
-      <c r="B126" s="23"/>
+      <c r="A126" s="20"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
@@ -3090,10 +3119,10 @@
       <c r="I126" s="13"/>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
+      <c r="A127" s="20"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E127" s="13"/>
       <c r="F127" s="13"/>
@@ -3102,14 +3131,10 @@
       <c r="I127" s="13"/>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1">
-      <c r="A128" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B128" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>161</v>
+      <c r="A128" s="20"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
@@ -3118,10 +3143,10 @@
       <c r="I128" s="13"/>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1">
-      <c r="A129" s="18"/>
-      <c r="B129" s="23"/>
+      <c r="A129" s="20"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
@@ -3130,10 +3155,10 @@
       <c r="I129" s="13"/>
     </row>
     <row r="130" spans="1:9" ht="15" customHeight="1">
-      <c r="A130" s="18"/>
-      <c r="B130" s="23"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
@@ -3142,10 +3167,14 @@
       <c r="I130" s="13"/>
     </row>
     <row r="131" spans="1:9" ht="15" customHeight="1">
-      <c r="A131" s="18"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="8" t="s">
-        <v>164</v>
+      <c r="A131" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
@@ -3155,9 +3184,9 @@
     </row>
     <row r="132" spans="1:9" ht="15" customHeight="1">
       <c r="A132" s="18"/>
-      <c r="B132" s="23"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E132" s="13"/>
       <c r="F132" s="13"/>
@@ -3167,11 +3196,9 @@
     </row>
     <row r="133" spans="1:9" ht="15" customHeight="1">
       <c r="A133" s="18"/>
-      <c r="B133" s="22" t="s">
-        <v>166</v>
-      </c>
+      <c r="B133" s="20"/>
       <c r="C133" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
@@ -3181,9 +3208,9 @@
     </row>
     <row r="134" spans="1:9" ht="15" customHeight="1">
       <c r="A134" s="18"/>
-      <c r="B134" s="23"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
@@ -3193,9 +3220,9 @@
     </row>
     <row r="135" spans="1:9" ht="15" customHeight="1">
       <c r="A135" s="18"/>
-      <c r="B135" s="23"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
@@ -3205,9 +3232,11 @@
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1">
       <c r="A136" s="18"/>
-      <c r="B136" s="23"/>
+      <c r="B136" s="19" t="s">
+        <v>166</v>
+      </c>
       <c r="C136" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
@@ -3217,9 +3246,9 @@
     </row>
     <row r="137" spans="1:9" ht="15" customHeight="1">
       <c r="A137" s="18"/>
-      <c r="B137" s="23"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
@@ -3229,9 +3258,9 @@
     </row>
     <row r="138" spans="1:9" ht="15" customHeight="1">
       <c r="A138" s="18"/>
-      <c r="B138" s="24"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
@@ -3241,11 +3270,9 @@
     </row>
     <row r="139" spans="1:9" ht="15" customHeight="1">
       <c r="A139" s="18"/>
-      <c r="B139" s="22" t="s">
-        <v>173</v>
-      </c>
+      <c r="B139" s="20"/>
       <c r="C139" s="8" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
@@ -3255,9 +3282,9 @@
     </row>
     <row r="140" spans="1:9" ht="15" customHeight="1">
       <c r="A140" s="18"/>
-      <c r="B140" s="23"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="8" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
@@ -3267,9 +3294,9 @@
     </row>
     <row r="141" spans="1:9" ht="15" customHeight="1">
       <c r="A141" s="18"/>
-      <c r="B141" s="24"/>
+      <c r="B141" s="21"/>
       <c r="C141" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
@@ -3279,11 +3306,11 @@
     </row>
     <row r="142" spans="1:9" ht="15" customHeight="1">
       <c r="A142" s="18"/>
-      <c r="B142" s="22" t="s">
-        <v>175</v>
+      <c r="B142" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
@@ -3293,9 +3320,9 @@
     </row>
     <row r="143" spans="1:9" ht="15" customHeight="1">
       <c r="A143" s="18"/>
-      <c r="B143" s="23"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="8" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
@@ -3305,9 +3332,9 @@
     </row>
     <row r="144" spans="1:9" ht="15" customHeight="1">
       <c r="A144" s="18"/>
-      <c r="B144" s="24"/>
+      <c r="B144" s="21"/>
       <c r="C144" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
@@ -3318,10 +3345,10 @@
     <row r="145" spans="1:9" ht="15" customHeight="1">
       <c r="A145" s="18"/>
       <c r="B145" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
@@ -3333,7 +3360,7 @@
       <c r="A146" s="18"/>
       <c r="B146" s="20"/>
       <c r="C146" s="8" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
@@ -3345,7 +3372,7 @@
       <c r="A147" s="18"/>
       <c r="B147" s="21"/>
       <c r="C147" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
@@ -3355,11 +3382,11 @@
     </row>
     <row r="148" spans="1:9" ht="15" customHeight="1">
       <c r="A148" s="18"/>
-      <c r="B148" s="19" t="s">
-        <v>182</v>
+      <c r="B148" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
@@ -3369,9 +3396,9 @@
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1">
       <c r="A149" s="18"/>
-      <c r="B149" s="21"/>
+      <c r="B149" s="23"/>
       <c r="C149" s="8" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
@@ -3381,11 +3408,9 @@
     </row>
     <row r="150" spans="1:9" ht="15" customHeight="1">
       <c r="A150" s="18"/>
-      <c r="B150" s="19" t="s">
-        <v>185</v>
-      </c>
+      <c r="B150" s="24"/>
       <c r="C150" s="8" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
@@ -3395,9 +3420,11 @@
     </row>
     <row r="151" spans="1:9" ht="15" customHeight="1">
       <c r="A151" s="18"/>
-      <c r="B151" s="20"/>
+      <c r="B151" s="22" t="s">
+        <v>182</v>
+      </c>
       <c r="C151" s="8" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="E151" s="13"/>
       <c r="F151" s="13"/>
@@ -3407,9 +3434,9 @@
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1">
       <c r="A152" s="18"/>
-      <c r="B152" s="20"/>
+      <c r="B152" s="24"/>
       <c r="C152" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E152" s="13"/>
       <c r="F152" s="13"/>
@@ -3419,9 +3446,11 @@
     </row>
     <row r="153" spans="1:9" ht="15" customHeight="1">
       <c r="A153" s="18"/>
-      <c r="B153" s="20"/>
+      <c r="B153" s="22" t="s">
+        <v>185</v>
+      </c>
       <c r="C153" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
@@ -3429,11 +3458,11 @@
       <c r="H153" s="13"/>
       <c r="I153" s="13"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" ht="15" customHeight="1">
       <c r="A154" s="18"/>
-      <c r="B154" s="20"/>
+      <c r="B154" s="23"/>
       <c r="C154" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
@@ -3441,11 +3470,11 @@
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" ht="15" customHeight="1">
       <c r="A155" s="18"/>
-      <c r="B155" s="20"/>
+      <c r="B155" s="23"/>
       <c r="C155" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
@@ -3453,11 +3482,11 @@
       <c r="H155" s="13"/>
       <c r="I155" s="13"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" ht="15" customHeight="1">
       <c r="A156" s="18"/>
-      <c r="B156" s="20"/>
+      <c r="B156" s="23"/>
       <c r="C156" s="8" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E156" s="13"/>
       <c r="F156" s="13"/>
@@ -3467,9 +3496,9 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="18"/>
-      <c r="B157" s="20"/>
+      <c r="B157" s="23"/>
       <c r="C157" s="8" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E157" s="13"/>
       <c r="F157" s="13"/>
@@ -3479,9 +3508,9 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="18"/>
-      <c r="B158" s="20"/>
+      <c r="B158" s="23"/>
       <c r="C158" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E158" s="13"/>
       <c r="F158" s="13"/>
@@ -3491,9 +3520,9 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="18"/>
-      <c r="B159" s="20"/>
+      <c r="B159" s="23"/>
       <c r="C159" s="8" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E159" s="13"/>
       <c r="F159" s="13"/>
@@ -3503,9 +3532,9 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="18"/>
-      <c r="B160" s="20"/>
+      <c r="B160" s="23"/>
       <c r="C160" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
@@ -3515,9 +3544,9 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="18"/>
-      <c r="B161" s="20"/>
+      <c r="B161" s="23"/>
       <c r="C161" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E161" s="13"/>
       <c r="F161" s="13"/>
@@ -3527,9 +3556,9 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="18"/>
-      <c r="B162" s="21"/>
+      <c r="B162" s="23"/>
       <c r="C162" s="8" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E162" s="13"/>
       <c r="F162" s="13"/>
@@ -3538,34 +3567,63 @@
       <c r="I162" s="13"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="C163"/>
+      <c r="A163" s="18"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="13"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="18"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="18"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="C166"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A128:A162"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="B150:B162"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="A121:A127"/>
-    <mergeCell ref="B121:B127"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="A69:A93"/>
-    <mergeCell ref="B69:B80"/>
-    <mergeCell ref="B81:B93"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A69:A96"/>
+    <mergeCell ref="B84:B96"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B46:B48"/>
@@ -3577,21 +3635,28 @@
     <mergeCell ref="A64:A68"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="B66:B68"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B69:B83"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A102:A111"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="B124:B130"/>
+    <mergeCell ref="A131:A165"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B165"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3662,19 +3727,19 @@
     <hyperlink ref="C66" r:id="rId65" xr:uid="{5A9DAAB0-9774-6B40-A7BE-44AD4AFDA443}"/>
     <hyperlink ref="C67" r:id="rId66" xr:uid="{2EFE5E8A-5256-CC46-8817-48504664B25A}"/>
     <hyperlink ref="C68" r:id="rId67" xr:uid="{1C529A4D-2ACE-B94B-AA54-ED4C90C190C7}"/>
-    <hyperlink ref="C81" r:id="rId68" xr:uid="{CD5A147A-B72E-2541-9CBF-E8E868E7A558}"/>
-    <hyperlink ref="C82" r:id="rId69" xr:uid="{C623668F-1FDD-6347-BEFC-8F95F1680230}"/>
-    <hyperlink ref="C83" r:id="rId70" xr:uid="{B50D93D4-025E-934E-9521-B9CF36B4CEA6}"/>
-    <hyperlink ref="C84" r:id="rId71" xr:uid="{63D1D9D8-B506-CE45-95CD-2CA7D051F5D7}"/>
-    <hyperlink ref="C85" r:id="rId72" xr:uid="{2BE21D2B-6C19-9247-BA05-81A4D0C48A9B}"/>
-    <hyperlink ref="C86" r:id="rId73" xr:uid="{B120DF44-7E5D-494B-B083-77C6C785DF49}"/>
-    <hyperlink ref="C87" r:id="rId74" xr:uid="{C8351804-7D1B-244D-AD50-491383B2FAE5}"/>
-    <hyperlink ref="C88" r:id="rId75" xr:uid="{0731AC1E-1AAC-2444-A0A1-0410DE3CCBD3}"/>
-    <hyperlink ref="C89" r:id="rId76" xr:uid="{120A3EF7-EAA8-904E-B182-9EE76B4244A4}"/>
-    <hyperlink ref="C90" r:id="rId77" xr:uid="{81A11AAD-0A56-834D-9FB5-E52AC996BC2B}"/>
-    <hyperlink ref="C91" r:id="rId78" xr:uid="{3C3FBE71-D9DD-AB43-86E2-314115DCAEBC}"/>
-    <hyperlink ref="C92" r:id="rId79" xr:uid="{2A8EF76E-039B-E444-A68A-3EABBD097F92}"/>
-    <hyperlink ref="C93" r:id="rId80" xr:uid="{76736BCA-FA51-3E42-9BD1-1536155D8B13}"/>
+    <hyperlink ref="C84" r:id="rId68" xr:uid="{CD5A147A-B72E-2541-9CBF-E8E868E7A558}"/>
+    <hyperlink ref="C85" r:id="rId69" xr:uid="{C623668F-1FDD-6347-BEFC-8F95F1680230}"/>
+    <hyperlink ref="C86" r:id="rId70" xr:uid="{B50D93D4-025E-934E-9521-B9CF36B4CEA6}"/>
+    <hyperlink ref="C87" r:id="rId71" xr:uid="{63D1D9D8-B506-CE45-95CD-2CA7D051F5D7}"/>
+    <hyperlink ref="C88" r:id="rId72" xr:uid="{2BE21D2B-6C19-9247-BA05-81A4D0C48A9B}"/>
+    <hyperlink ref="C89" r:id="rId73" xr:uid="{B120DF44-7E5D-494B-B083-77C6C785DF49}"/>
+    <hyperlink ref="C90" r:id="rId74" xr:uid="{C8351804-7D1B-244D-AD50-491383B2FAE5}"/>
+    <hyperlink ref="C91" r:id="rId75" xr:uid="{0731AC1E-1AAC-2444-A0A1-0410DE3CCBD3}"/>
+    <hyperlink ref="C92" r:id="rId76" xr:uid="{120A3EF7-EAA8-904E-B182-9EE76B4244A4}"/>
+    <hyperlink ref="C93" r:id="rId77" xr:uid="{81A11AAD-0A56-834D-9FB5-E52AC996BC2B}"/>
+    <hyperlink ref="C94" r:id="rId78" xr:uid="{3C3FBE71-D9DD-AB43-86E2-314115DCAEBC}"/>
+    <hyperlink ref="C95" r:id="rId79" xr:uid="{2A8EF76E-039B-E444-A68A-3EABBD097F92}"/>
+    <hyperlink ref="C96" r:id="rId80" xr:uid="{76736BCA-FA51-3E42-9BD1-1536155D8B13}"/>
     <hyperlink ref="C72" r:id="rId81" xr:uid="{9447D6F8-6C96-5445-B52E-9202F01E146E}"/>
     <hyperlink ref="C77" r:id="rId82" xr:uid="{1127A81E-DFE3-B94E-80B9-5DCCDFB4F12C}"/>
     <hyperlink ref="C78" r:id="rId83" xr:uid="{93585D85-C0B5-354F-A9D4-6606899DB09D}"/>
@@ -3684,62 +3749,62 @@
     <hyperlink ref="C80" r:id="rId87" xr:uid="{0A6DCE78-D386-5341-835B-F78BA9FCFAED}"/>
     <hyperlink ref="C70" r:id="rId88" xr:uid="{43839D62-443D-0D4C-909E-1006CB41B86A}"/>
     <hyperlink ref="C75" r:id="rId89" location="/description" xr:uid="{687DEFB7-EDAE-1544-A432-55045FB0067F}"/>
-    <hyperlink ref="C94" r:id="rId90" location="/description" xr:uid="{91F13203-A415-834E-A1D5-06FD2795043C}"/>
-    <hyperlink ref="C96" r:id="rId91" xr:uid="{2680FB43-6B71-D043-A530-CA4993A6B0FA}"/>
-    <hyperlink ref="C97" r:id="rId92" xr:uid="{93108326-3C7B-0E49-AE3C-344EA8DB23E5}"/>
-    <hyperlink ref="C98" r:id="rId93" xr:uid="{AF1F618A-1C96-0549-850A-D6C08BD5A24D}"/>
-    <hyperlink ref="C99" r:id="rId94" xr:uid="{96C3FC81-AF56-6C42-8A8D-B19129A05394}"/>
-    <hyperlink ref="C100" r:id="rId95" xr:uid="{66306742-69E8-2848-A09D-93A1D8CA7D20}"/>
-    <hyperlink ref="C101" r:id="rId96" display="https://leetcode-cn.com/problems/n-queens/" xr:uid="{534FAA8C-0A6E-5F48-AC53-B9233821CC8C}"/>
-    <hyperlink ref="C102" r:id="rId97" xr:uid="{E874D010-4D08-6643-BEAC-D0DC06A36F87}"/>
-    <hyperlink ref="C103" r:id="rId98" location="/description" display="https://leetcode-cn.com/problems/sudoku-solver/ - /description" xr:uid="{7A7B195F-0252-7D41-A8A8-BF9E5C9A3DB6}"/>
-    <hyperlink ref="C104" r:id="rId99" xr:uid="{B3AC317D-9747-E144-A5CC-12290823F16B}"/>
-    <hyperlink ref="C105" r:id="rId100" xr:uid="{8048C2BC-3B4B-CB49-803A-D6C3DFF4FD5A}"/>
-    <hyperlink ref="C106" r:id="rId101" xr:uid="{7399487B-52CA-8E48-9995-E65947C2962B}"/>
-    <hyperlink ref="C107" r:id="rId102" xr:uid="{A247CFA2-8D47-7343-86DE-58F756D21245}"/>
-    <hyperlink ref="C108" r:id="rId103" xr:uid="{FAAB08D3-077A-6948-8A77-BB7ACFA661C6}"/>
-    <hyperlink ref="C110" r:id="rId104" xr:uid="{6BDD249D-058D-6C48-AFF3-8DC51C8B6B1D}"/>
-    <hyperlink ref="C113" r:id="rId105" xr:uid="{9ED058F8-F853-9C47-8604-DF8BF9366DFB}"/>
-    <hyperlink ref="C116" r:id="rId106" xr:uid="{832B677B-FF35-304C-8725-8677D8A2A29B}"/>
-    <hyperlink ref="C119" r:id="rId107" xr:uid="{C8714317-C263-3B4D-8D87-4F695D29A247}"/>
-    <hyperlink ref="C120" r:id="rId108" xr:uid="{92ACD725-E196-464F-BA35-C914C00B9EBB}"/>
-    <hyperlink ref="C114" r:id="rId109" xr:uid="{35CDD2E3-8144-8C45-A6BD-2153A99FB0B4}"/>
-    <hyperlink ref="C122" r:id="rId110" xr:uid="{A74B0A92-FB01-1C46-92F4-E5020BA65D9A}"/>
-    <hyperlink ref="C123" r:id="rId111" display="https://leetcode-cn.com/problems/decode-ways/%E2%80%A8" xr:uid="{0FEE06BD-E223-1F44-AF0D-961049E087D3}"/>
-    <hyperlink ref="C124" r:id="rId112" display="https://leetcode-cn.com/problems/longest-valid-parentheses/%E2%80%A8" xr:uid="{8739B35B-7CB5-8248-B048-F817D339E331}"/>
-    <hyperlink ref="C125" r:id="rId113" display="https://leetcode-cn.com/problems/maximal-rectangle/" xr:uid="{40AE1D26-94D9-3F4F-984D-EFA97D1589C7}"/>
-    <hyperlink ref="C126" r:id="rId114" display="https://leetcode-cn.com/problems/distinct-subsequences/" xr:uid="{EADD21E3-570D-1A4B-A4B9-1EB132BEE23F}"/>
-    <hyperlink ref="C127" r:id="rId115" xr:uid="{8469DACB-A45C-8842-9449-F92748338108}"/>
-    <hyperlink ref="C150" r:id="rId116" xr:uid="{6329A0B0-93CA-8445-A258-4CC1B56B56BC}"/>
-    <hyperlink ref="C151" r:id="rId117" xr:uid="{444F7CA4-C6E5-6740-8167-AAAAD04F12D6}"/>
-    <hyperlink ref="C152" r:id="rId118" display="https://leetcode-cn.com/problems/reverse-string-ii/%E2%80%A8" xr:uid="{CE9B6D32-DC95-AD47-89DF-EFD1127178E8}"/>
-    <hyperlink ref="C153" r:id="rId119" xr:uid="{A2A22EB2-12FA-D94A-BC72-C7B5FEAD1CD4}"/>
-    <hyperlink ref="C154" r:id="rId120" xr:uid="{AA7D645F-A3FF-A446-8D44-541F2D8538A6}"/>
-    <hyperlink ref="C155" r:id="rId121" xr:uid="{55CF9912-A889-4C41-8B64-9BE00C3F1023}"/>
-    <hyperlink ref="C156" r:id="rId122" xr:uid="{D61EB9F1-BFCB-124B-AB3E-D08C64793250}"/>
-    <hyperlink ref="C157" r:id="rId123" display="https://leetcode-cn.com/problems/longest-palindromic-substring/" xr:uid="{6C2EF24B-CCFE-5D4E-AB52-6B750A3DDCE9}"/>
-    <hyperlink ref="C158" r:id="rId124" display="https://leetcode-cn.com/problems/isomorphic-strings/%E2%80%A8" xr:uid="{4C63B0C7-A90D-A541-B943-B20254F8DD55}"/>
-    <hyperlink ref="C159" r:id="rId125" xr:uid="{76C845D9-37DF-EF40-847E-D407355DB0DE}"/>
-    <hyperlink ref="C160" r:id="rId126" xr:uid="{3873D3DB-9731-D243-8231-84FE0FE8F62D}"/>
-    <hyperlink ref="C161" r:id="rId127" xr:uid="{33B6170C-BE56-2C42-9DB0-BD4BE99521F3}"/>
-    <hyperlink ref="C162" r:id="rId128" xr:uid="{3C735407-E3EA-5748-BAA0-0A5C7B1D99D0}"/>
-    <hyperlink ref="C128" r:id="rId129" xr:uid="{C1A5F5FB-17E7-6945-A9B7-1784896B1F39}"/>
-    <hyperlink ref="C129" r:id="rId130" xr:uid="{5A8B9FCC-5F8B-214C-8379-3EDCDB49CB1A}"/>
-    <hyperlink ref="C130" r:id="rId131" xr:uid="{482AD894-C413-6145-B785-575F23D0405B}"/>
-    <hyperlink ref="C131" r:id="rId132" xr:uid="{8ABC90AA-0F04-F340-8D94-644BD647FCE5}"/>
-    <hyperlink ref="C132" r:id="rId133" xr:uid="{6EAEEF33-61C9-0C4B-A62D-F038A238A2DB}"/>
-    <hyperlink ref="C133" r:id="rId134" xr:uid="{22EEC9DF-FAAF-A74A-9749-017B68816375}"/>
-    <hyperlink ref="C134" r:id="rId135" xr:uid="{0DA05B6E-B848-184D-9E9D-3419FB81E12F}"/>
-    <hyperlink ref="C135" r:id="rId136" xr:uid="{D8232F77-8349-1B41-90D2-CBD40369B145}"/>
-    <hyperlink ref="C136" r:id="rId137" xr:uid="{9F27D13E-85E2-B843-9A44-79653AFF7E44}"/>
-    <hyperlink ref="C137" r:id="rId138" xr:uid="{F2FA2E21-B83A-7248-BE34-2442B9D00CDB}"/>
-    <hyperlink ref="C139" r:id="rId139" xr:uid="{B4379789-401D-6240-8FFC-A84813E9DF89}"/>
-    <hyperlink ref="C140" r:id="rId140" xr:uid="{F508D53E-D93C-C549-8483-023847FA429F}"/>
-    <hyperlink ref="C142" r:id="rId141" xr:uid="{3541A15E-873F-4943-8E96-E26126B9ED3E}"/>
-    <hyperlink ref="C143" r:id="rId142" xr:uid="{7920D804-989B-304A-BC53-B13F5AADB649}"/>
-    <hyperlink ref="C144" r:id="rId143" xr:uid="{8228665C-E1D9-8647-BC68-04353996526F}"/>
-    <hyperlink ref="C121" r:id="rId144" xr:uid="{AF84C9B7-0C0A-284A-AE2C-BB6D002D5321}"/>
-    <hyperlink ref="C148" r:id="rId145" xr:uid="{918412FB-340B-A243-8BE9-BB60E3E2EE0C}"/>
+    <hyperlink ref="C97" r:id="rId90" location="/description" xr:uid="{91F13203-A415-834E-A1D5-06FD2795043C}"/>
+    <hyperlink ref="C99" r:id="rId91" xr:uid="{2680FB43-6B71-D043-A530-CA4993A6B0FA}"/>
+    <hyperlink ref="C100" r:id="rId92" xr:uid="{93108326-3C7B-0E49-AE3C-344EA8DB23E5}"/>
+    <hyperlink ref="C101" r:id="rId93" xr:uid="{AF1F618A-1C96-0549-850A-D6C08BD5A24D}"/>
+    <hyperlink ref="C102" r:id="rId94" xr:uid="{96C3FC81-AF56-6C42-8A8D-B19129A05394}"/>
+    <hyperlink ref="C103" r:id="rId95" xr:uid="{66306742-69E8-2848-A09D-93A1D8CA7D20}"/>
+    <hyperlink ref="C104" r:id="rId96" display="https://leetcode-cn.com/problems/n-queens/" xr:uid="{534FAA8C-0A6E-5F48-AC53-B9233821CC8C}"/>
+    <hyperlink ref="C105" r:id="rId97" xr:uid="{E874D010-4D08-6643-BEAC-D0DC06A36F87}"/>
+    <hyperlink ref="C106" r:id="rId98" location="/description" display="https://leetcode-cn.com/problems/sudoku-solver/ - /description" xr:uid="{7A7B195F-0252-7D41-A8A8-BF9E5C9A3DB6}"/>
+    <hyperlink ref="C107" r:id="rId99" xr:uid="{B3AC317D-9747-E144-A5CC-12290823F16B}"/>
+    <hyperlink ref="C108" r:id="rId100" xr:uid="{8048C2BC-3B4B-CB49-803A-D6C3DFF4FD5A}"/>
+    <hyperlink ref="C109" r:id="rId101" xr:uid="{7399487B-52CA-8E48-9995-E65947C2962B}"/>
+    <hyperlink ref="C110" r:id="rId102" xr:uid="{A247CFA2-8D47-7343-86DE-58F756D21245}"/>
+    <hyperlink ref="C111" r:id="rId103" xr:uid="{FAAB08D3-077A-6948-8A77-BB7ACFA661C6}"/>
+    <hyperlink ref="C113" r:id="rId104" xr:uid="{6BDD249D-058D-6C48-AFF3-8DC51C8B6B1D}"/>
+    <hyperlink ref="C116" r:id="rId105" xr:uid="{9ED058F8-F853-9C47-8604-DF8BF9366DFB}"/>
+    <hyperlink ref="C119" r:id="rId106" xr:uid="{832B677B-FF35-304C-8725-8677D8A2A29B}"/>
+    <hyperlink ref="C122" r:id="rId107" xr:uid="{C8714317-C263-3B4D-8D87-4F695D29A247}"/>
+    <hyperlink ref="C123" r:id="rId108" xr:uid="{92ACD725-E196-464F-BA35-C914C00B9EBB}"/>
+    <hyperlink ref="C117" r:id="rId109" xr:uid="{35CDD2E3-8144-8C45-A6BD-2153A99FB0B4}"/>
+    <hyperlink ref="C125" r:id="rId110" xr:uid="{A74B0A92-FB01-1C46-92F4-E5020BA65D9A}"/>
+    <hyperlink ref="C126" r:id="rId111" display="https://leetcode-cn.com/problems/decode-ways/%E2%80%A8" xr:uid="{0FEE06BD-E223-1F44-AF0D-961049E087D3}"/>
+    <hyperlink ref="C127" r:id="rId112" display="https://leetcode-cn.com/problems/longest-valid-parentheses/%E2%80%A8" xr:uid="{8739B35B-7CB5-8248-B048-F817D339E331}"/>
+    <hyperlink ref="C128" r:id="rId113" display="https://leetcode-cn.com/problems/maximal-rectangle/" xr:uid="{40AE1D26-94D9-3F4F-984D-EFA97D1589C7}"/>
+    <hyperlink ref="C129" r:id="rId114" display="https://leetcode-cn.com/problems/distinct-subsequences/" xr:uid="{EADD21E3-570D-1A4B-A4B9-1EB132BEE23F}"/>
+    <hyperlink ref="C130" r:id="rId115" xr:uid="{8469DACB-A45C-8842-9449-F92748338108}"/>
+    <hyperlink ref="C153" r:id="rId116" xr:uid="{6329A0B0-93CA-8445-A258-4CC1B56B56BC}"/>
+    <hyperlink ref="C154" r:id="rId117" xr:uid="{444F7CA4-C6E5-6740-8167-AAAAD04F12D6}"/>
+    <hyperlink ref="C155" r:id="rId118" display="https://leetcode-cn.com/problems/reverse-string-ii/%E2%80%A8" xr:uid="{CE9B6D32-DC95-AD47-89DF-EFD1127178E8}"/>
+    <hyperlink ref="C156" r:id="rId119" xr:uid="{A2A22EB2-12FA-D94A-BC72-C7B5FEAD1CD4}"/>
+    <hyperlink ref="C157" r:id="rId120" xr:uid="{AA7D645F-A3FF-A446-8D44-541F2D8538A6}"/>
+    <hyperlink ref="C158" r:id="rId121" xr:uid="{55CF9912-A889-4C41-8B64-9BE00C3F1023}"/>
+    <hyperlink ref="C159" r:id="rId122" xr:uid="{D61EB9F1-BFCB-124B-AB3E-D08C64793250}"/>
+    <hyperlink ref="C160" r:id="rId123" display="https://leetcode-cn.com/problems/longest-palindromic-substring/" xr:uid="{6C2EF24B-CCFE-5D4E-AB52-6B750A3DDCE9}"/>
+    <hyperlink ref="C161" r:id="rId124" display="https://leetcode-cn.com/problems/isomorphic-strings/%E2%80%A8" xr:uid="{4C63B0C7-A90D-A541-B943-B20254F8DD55}"/>
+    <hyperlink ref="C162" r:id="rId125" xr:uid="{76C845D9-37DF-EF40-847E-D407355DB0DE}"/>
+    <hyperlink ref="C163" r:id="rId126" xr:uid="{3873D3DB-9731-D243-8231-84FE0FE8F62D}"/>
+    <hyperlink ref="C164" r:id="rId127" xr:uid="{33B6170C-BE56-2C42-9DB0-BD4BE99521F3}"/>
+    <hyperlink ref="C165" r:id="rId128" xr:uid="{3C735407-E3EA-5748-BAA0-0A5C7B1D99D0}"/>
+    <hyperlink ref="C131" r:id="rId129" xr:uid="{C1A5F5FB-17E7-6945-A9B7-1784896B1F39}"/>
+    <hyperlink ref="C132" r:id="rId130" xr:uid="{5A8B9FCC-5F8B-214C-8379-3EDCDB49CB1A}"/>
+    <hyperlink ref="C133" r:id="rId131" xr:uid="{482AD894-C413-6145-B785-575F23D0405B}"/>
+    <hyperlink ref="C134" r:id="rId132" xr:uid="{8ABC90AA-0F04-F340-8D94-644BD647FCE5}"/>
+    <hyperlink ref="C135" r:id="rId133" xr:uid="{6EAEEF33-61C9-0C4B-A62D-F038A238A2DB}"/>
+    <hyperlink ref="C136" r:id="rId134" xr:uid="{22EEC9DF-FAAF-A74A-9749-017B68816375}"/>
+    <hyperlink ref="C137" r:id="rId135" xr:uid="{0DA05B6E-B848-184D-9E9D-3419FB81E12F}"/>
+    <hyperlink ref="C138" r:id="rId136" xr:uid="{D8232F77-8349-1B41-90D2-CBD40369B145}"/>
+    <hyperlink ref="C139" r:id="rId137" xr:uid="{9F27D13E-85E2-B843-9A44-79653AFF7E44}"/>
+    <hyperlink ref="C140" r:id="rId138" xr:uid="{F2FA2E21-B83A-7248-BE34-2442B9D00CDB}"/>
+    <hyperlink ref="C142" r:id="rId139" xr:uid="{B4379789-401D-6240-8FFC-A84813E9DF89}"/>
+    <hyperlink ref="C143" r:id="rId140" xr:uid="{F508D53E-D93C-C549-8483-023847FA429F}"/>
+    <hyperlink ref="C145" r:id="rId141" xr:uid="{3541A15E-873F-4943-8E96-E26126B9ED3E}"/>
+    <hyperlink ref="C146" r:id="rId142" xr:uid="{7920D804-989B-304A-BC53-B13F5AADB649}"/>
+    <hyperlink ref="C147" r:id="rId143" xr:uid="{8228665C-E1D9-8647-BC68-04353996526F}"/>
+    <hyperlink ref="C124" r:id="rId144" xr:uid="{AF84C9B7-0C0A-284A-AE2C-BB6D002D5321}"/>
+    <hyperlink ref="C151" r:id="rId145" xr:uid="{918412FB-340B-A243-8BE9-BB60E3E2EE0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
